--- a/Inputs/ResourceFile-ForAllGroups.xlsx
+++ b/Inputs/ResourceFile-ForAllGroups.xlsx
@@ -35,10 +35,10 @@
     <t>link</t>
   </si>
   <si>
-    <t>Resource8-130120 (Chinese)</t>
-  </si>
-  <si>
-    <t>Resource8-130120 Summary</t>
+    <t>Resource1-230120 (Chinese)</t>
+  </si>
+  <si>
+    <t>Resource8-230120 Summary</t>
   </si>
   <si>
     <t>Case Studies</t>
@@ -64,10 +64,10 @@
     </r>
   </si>
   <si>
-    <t>Resource9-130120 (Private Group)</t>
-  </si>
-  <si>
-    <t>Resource9-130120 Summary</t>
+    <t>Resource2-230120 (Private Group)</t>
+  </si>
+  <si>
+    <t>Resource2-230120 Summary</t>
   </si>
   <si>
     <t>Templates</t>
@@ -82,10 +82,10 @@
     <t>https://www.quora.com</t>
   </si>
   <si>
-    <t>Resource10-130120 (External Members)</t>
-  </si>
-  <si>
-    <t>Resource10-130120 Summary</t>
+    <t>Resource3-230120 (External Members)</t>
+  </si>
+  <si>
+    <t>Resource3-230120 Summary</t>
   </si>
   <si>
     <t>Tools</t>
@@ -97,10 +97,10 @@
     <t>Staffing &amp; Training</t>
   </si>
   <si>
-    <t>Resource11-130120 (Network)</t>
-  </si>
-  <si>
-    <t>Resource11-130120 Summary</t>
+    <t>Resource4-230120 (Network)</t>
+  </si>
+  <si>
+    <t>Resource4-230120 Summary</t>
   </si>
   <si>
     <t>Uptime Institute Network</t>
@@ -109,10 +109,10 @@
     <t>Management Technology</t>
   </si>
   <si>
-    <t>Resource12-130120 (Distributed Resiliency)</t>
-  </si>
-  <si>
-    <t>Resource12-130120 Summary</t>
+    <t>Resource5-230120 (Distributed Resiliency)</t>
+  </si>
+  <si>
+    <t>Resource5-230120 Summary</t>
   </si>
   <si>
     <t>UI Network (Spanish)</t>
@@ -121,10 +121,10 @@
     <t>Risk &amp; Resiliency</t>
   </si>
   <si>
-    <t>Resource13-130120 (Internal Admins)</t>
-  </si>
-  <si>
-    <t>Resource13-130120 Summary</t>
+    <t>Resource6-230120 (Internal Admins)</t>
+  </si>
+  <si>
+    <t>Resource6-230120 Summary</t>
   </si>
   <si>
     <t>Internal Admin Group</t>
@@ -133,10 +133,10 @@
     <t>New Builds &amp; Equipment</t>
   </si>
   <si>
-    <t>Resource14-130120 (Private Group)</t>
-  </si>
-  <si>
-    <t>Resource14-130120 Summary</t>
+    <t>Resource7-230120 (Private Group)</t>
+  </si>
+  <si>
+    <t>Resource7-230120 Summary</t>
   </si>
   <si>
     <t>SomeEmails</t>
